--- a/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
+++ b/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A8715-3D77-1E41-98F1-EB1E5B40C129}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C2952-0FA5-324E-908F-2899FCD5D07E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4139,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -4230,7 +4230,10 @@
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="e">
+        <f>FIND(J2,"数据分析")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>

--- a/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
+++ b/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C2952-0FA5-324E-908F-2899FCD5D07E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9F0BA5-5B20-CD49-A066-FB579E5C76DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4139,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -4230,10 +4230,7 @@
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="e">
-        <f>FIND(J2,"数据分析")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>

--- a/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
+++ b/01-Excel/01-文本函数/视频操作文件/文本函数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/01-文本函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5787933-F0CF-ED45-A957-5CFCF871345F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89162F-77D2-A04D-97F5-7E26D4C64E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4140,7 +4140,8 @@
   <dimension ref="A1:O451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K447" sqref="K447"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
